--- a/REGULAR/CSU/DIMAPILIS, DENNIS C..xlsx
+++ b/REGULAR/CSU/DIMAPILIS, DENNIS C..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="271">
   <si>
     <t>PERIOD</t>
   </si>
@@ -844,6 +844,9 @@
   </si>
   <si>
     <t>UT(0-1-59)</t>
+  </si>
+  <si>
+    <t>12/27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1731,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1771,7 +1774,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1835,7 +1838,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1895,7 +1898,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1961,7 +1964,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2024,7 +2027,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2125,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2181,7 +2184,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2246,7 +2249,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2289,7 +2292,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2364,7 +2367,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,7 +2553,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2616,7 +2619,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2674,7 +2677,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2740,7 +2743,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2796,7 +2799,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2871,7 +2874,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2914,7 +2917,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2980,7 +2983,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3036,7 +3039,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3134,7 +3137,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3197,7 +3200,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3646,7 +3649,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A425" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K435" sqref="K435"/>
+      <selection pane="bottomLeft" activeCell="E439" sqref="E439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3809,7 +3812,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>129.613</v>
+        <v>135.863</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3819,7 +3822,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>245.625</v>
+        <v>248.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13447,13 +13450,15 @@
       <c r="B435" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C435" s="13"/>
+      <c r="C435" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D435" s="39"/>
       <c r="E435" s="9"/>
       <c r="F435" s="20"/>
-      <c r="G435" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G435" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H435" s="39">
         <v>1</v>
@@ -13469,13 +13474,15 @@
         <v>45170</v>
       </c>
       <c r="B436" s="20"/>
-      <c r="C436" s="13"/>
+      <c r="C436" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D436" s="39"/>
       <c r="E436" s="9"/>
       <c r="F436" s="20"/>
-      <c r="G436" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G436" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H436" s="39"/>
       <c r="I436" s="9"/>
@@ -13487,13 +13494,15 @@
         <v>45200</v>
       </c>
       <c r="B437" s="20"/>
-      <c r="C437" s="13"/>
+      <c r="C437" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D437" s="39"/>
       <c r="E437" s="9"/>
       <c r="F437" s="20"/>
-      <c r="G437" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G437" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H437" s="39"/>
       <c r="I437" s="9"/>
@@ -13505,13 +13514,15 @@
         <v>45231</v>
       </c>
       <c r="B438" s="20"/>
-      <c r="C438" s="13"/>
+      <c r="C438" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D438" s="39"/>
       <c r="E438" s="9"/>
       <c r="F438" s="20"/>
-      <c r="G438" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G438" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H438" s="39"/>
       <c r="I438" s="9"/>
@@ -13522,19 +13533,27 @@
       <c r="A439" s="40">
         <v>45261</v>
       </c>
-      <c r="B439" s="20"/>
-      <c r="C439" s="13"/>
+      <c r="B439" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C439" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D439" s="39"/>
       <c r="E439" s="9"/>
       <c r="F439" s="20"/>
-      <c r="G439" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H439" s="39"/>
+      <c r="G439" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H439" s="39">
+        <v>3</v>
+      </c>
       <c r="I439" s="9"/>
       <c r="J439" s="11"/>
-      <c r="K439" s="20"/>
+      <c r="K439" s="20" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">

--- a/REGULAR/CSU/DIMAPILIS, DENNIS C..xlsx
+++ b/REGULAR/CSU/DIMAPILIS, DENNIS C..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="283">
   <si>
     <t>PERIOD</t>
   </si>
@@ -847,6 +847,42 @@
   </si>
   <si>
     <t>12/27-29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-0-25)</t>
+  </si>
+  <si>
+    <t>UT(0-0-18)</t>
+  </si>
+  <si>
+    <t>UT(0-4-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-5)</t>
+  </si>
+  <si>
+    <t>UT(0-0-15)</t>
+  </si>
+  <si>
+    <t>UT(0-0-26)</t>
+  </si>
+  <si>
+    <t>UT(0-0-23)</t>
+  </si>
+  <si>
+    <t>UT(0-0-1)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-1-2)</t>
+  </si>
+  <si>
+    <t>UT(0-0-59)</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1208,9 +1244,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1731,7 +1764,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1774,7 +1807,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1838,7 +1871,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1931,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1964,7 +1997,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2027,7 +2060,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,7 +2158,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2184,7 +2217,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2282,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2292,7 +2325,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2400,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2553,7 +2586,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,7 +2652,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2677,7 +2710,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2743,7 +2776,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2799,7 +2832,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2874,7 +2907,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2917,7 +2950,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2983,7 +3016,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3039,7 +3072,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3137,7 +3170,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3200,7 +3233,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3266,7 +3299,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K442" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K459" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3644,12 +3677,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K442"/>
+  <dimension ref="A2:K459"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A425" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E439" sqref="E439"/>
+      <selection pane="bottomLeft" activeCell="F434" sqref="F434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3671,64 +3704,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="G2" s="62"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="60"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="G4" s="60"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="61"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3754,18 +3787,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3812,7 +3845,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>135.863</v>
+        <v>128.83500000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3828,7 +3861,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="47" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="20"/>
@@ -3961,20 +3994,20 @@
       <c r="C16" s="13">
         <v>1.25</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="9"/>
       <c r="F16" s="15"/>
       <c r="G16" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H16" s="43"/>
+      <c r="H16" s="42"/>
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="20"/>
@@ -4294,7 +4327,7 @@
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B31" s="20"/>
@@ -4667,7 +4700,7 @@
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="49">
+      <c r="K46" s="48">
         <v>36515</v>
       </c>
     </row>
@@ -4734,7 +4767,7 @@
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="48" t="s">
+      <c r="A50" s="47" t="s">
         <v>54</v>
       </c>
       <c r="B50" s="20"/>
@@ -4966,7 +4999,7 @@
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="49">
+      <c r="K59" s="48">
         <v>36725</v>
       </c>
     </row>
@@ -5085,7 +5118,7 @@
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="49">
+      <c r="K64" s="48">
         <v>36801</v>
       </c>
     </row>
@@ -5179,7 +5212,7 @@
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="49">
+      <c r="K68" s="48">
         <v>36868</v>
       </c>
     </row>
@@ -5201,7 +5234,7 @@
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="49">
+      <c r="K69" s="48">
         <v>36879</v>
       </c>
     </row>
@@ -5248,7 +5281,7 @@
       <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="48" t="s">
+      <c r="A72" s="47" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="20"/>
@@ -5376,7 +5409,7 @@
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="49">
+      <c r="K77" s="48">
         <v>37015</v>
       </c>
     </row>
@@ -5396,7 +5429,7 @@
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="49" t="s">
+      <c r="K78" s="48" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5465,7 +5498,7 @@
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="49">
+      <c r="K81" s="48">
         <v>37127</v>
       </c>
     </row>
@@ -5560,7 +5593,7 @@
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="49">
+      <c r="K85" s="48">
         <v>37211</v>
       </c>
     </row>
@@ -5582,7 +5615,7 @@
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="49">
+      <c r="K86" s="48">
         <v>40874</v>
       </c>
     </row>
@@ -5604,7 +5637,7 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="49"/>
+      <c r="K87" s="48"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
@@ -5652,7 +5685,7 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="48" t="s">
+      <c r="A90" s="47" t="s">
         <v>91</v>
       </c>
       <c r="B90" s="20"/>
@@ -5739,7 +5772,7 @@
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="49">
+      <c r="K93" s="48">
         <v>37337</v>
       </c>
     </row>
@@ -5761,7 +5794,7 @@
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="49"/>
+      <c r="K94" s="48"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
@@ -5806,7 +5839,7 @@
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="49">
+      <c r="K96" s="48">
         <v>37349</v>
       </c>
     </row>
@@ -5967,7 +6000,7 @@
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="49">
+      <c r="K103" s="48">
         <v>37493</v>
       </c>
     </row>
@@ -6015,7 +6048,7 @@
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="49">
+      <c r="K105" s="48">
         <v>37552</v>
       </c>
     </row>
@@ -6069,12 +6102,12 @@
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
-      <c r="K107" s="49">
+      <c r="K107" s="48">
         <v>37606</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="48" t="s">
+      <c r="A108" s="47" t="s">
         <v>92</v>
       </c>
       <c r="B108" s="20"/>
@@ -6282,7 +6315,7 @@
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="49">
+      <c r="K117" s="48">
         <v>37888</v>
       </c>
     </row>
@@ -6354,7 +6387,7 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="48" t="s">
+      <c r="A121" s="47" t="s">
         <v>93</v>
       </c>
       <c r="B121" s="20"/>
@@ -6394,7 +6427,7 @@
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="11"/>
-      <c r="K122" s="49">
+      <c r="K122" s="48">
         <v>37995</v>
       </c>
     </row>
@@ -6542,7 +6575,7 @@
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="11"/>
-      <c r="K128" s="49">
+      <c r="K128" s="48">
         <v>38198</v>
       </c>
     </row>
@@ -6564,7 +6597,7 @@
       <c r="H129" s="39"/>
       <c r="I129" s="9"/>
       <c r="J129" s="11"/>
-      <c r="K129" s="49"/>
+      <c r="K129" s="48"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
@@ -6692,7 +6725,7 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="48" t="s">
+      <c r="A135" s="47" t="s">
         <v>94</v>
       </c>
       <c r="B135" s="20"/>
@@ -6732,7 +6765,7 @@
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="11"/>
-      <c r="K136" s="49">
+      <c r="K136" s="48">
         <v>38362</v>
       </c>
     </row>
@@ -6924,7 +6957,7 @@
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="11"/>
-      <c r="K144" s="49">
+      <c r="K144" s="48">
         <v>38551</v>
       </c>
     </row>
@@ -7138,7 +7171,7 @@
       <c r="K153" s="20"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="48" t="s">
+      <c r="A154" s="47" t="s">
         <v>123</v>
       </c>
       <c r="B154" s="20"/>
@@ -7426,7 +7459,7 @@
       <c r="C166" s="13">
         <v>1.25</v>
       </c>
-      <c r="D166" s="43">
+      <c r="D166" s="42">
         <v>0.85599999999999998</v>
       </c>
       <c r="E166" s="9"/>
@@ -7435,7 +7468,7 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H166" s="43"/>
+      <c r="H166" s="42"/>
       <c r="I166" s="9"/>
       <c r="J166" s="12"/>
       <c r="K166" s="15"/>
@@ -7536,7 +7569,7 @@
       <c r="K170" s="20"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="48" t="s">
+      <c r="A171" s="47" t="s">
         <v>137</v>
       </c>
       <c r="B171" s="20"/>
@@ -7601,7 +7634,7 @@
       </c>
       <c r="I173" s="9"/>
       <c r="J173" s="11"/>
-      <c r="K173" s="49">
+      <c r="K173" s="48">
         <v>39139</v>
       </c>
     </row>
@@ -7646,7 +7679,7 @@
       <c r="H175" s="39"/>
       <c r="I175" s="9"/>
       <c r="J175" s="11"/>
-      <c r="K175" s="49" t="s">
+      <c r="K175" s="48" t="s">
         <v>157</v>
       </c>
     </row>
@@ -7668,7 +7701,7 @@
       </c>
       <c r="I176" s="9"/>
       <c r="J176" s="11"/>
-      <c r="K176" s="49">
+      <c r="K176" s="48">
         <v>39175</v>
       </c>
     </row>
@@ -7760,7 +7793,7 @@
       </c>
       <c r="I180" s="9"/>
       <c r="J180" s="11"/>
-      <c r="K180" s="49">
+      <c r="K180" s="48">
         <v>39227</v>
       </c>
     </row>
@@ -7879,7 +7912,7 @@
       </c>
       <c r="I185" s="9"/>
       <c r="J185" s="11"/>
-      <c r="K185" s="49">
+      <c r="K185" s="48">
         <v>39325</v>
       </c>
     </row>
@@ -7901,7 +7934,7 @@
       <c r="H186" s="39"/>
       <c r="I186" s="9"/>
       <c r="J186" s="11"/>
-      <c r="K186" s="49"/>
+      <c r="K186" s="48"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
@@ -7951,7 +7984,7 @@
       </c>
       <c r="I188" s="9"/>
       <c r="J188" s="11"/>
-      <c r="K188" s="49">
+      <c r="K188" s="48">
         <v>39360</v>
       </c>
     </row>
@@ -8068,7 +8101,7 @@
       <c r="K193" s="20"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="48" t="s">
+      <c r="A194" s="47" t="s">
         <v>153</v>
       </c>
       <c r="B194" s="20"/>
@@ -8108,7 +8141,7 @@
       </c>
       <c r="I195" s="9"/>
       <c r="J195" s="11"/>
-      <c r="K195" s="49">
+      <c r="K195" s="48">
         <v>39456</v>
       </c>
     </row>
@@ -8130,7 +8163,7 @@
       <c r="H196" s="39"/>
       <c r="I196" s="9"/>
       <c r="J196" s="11"/>
-      <c r="K196" s="49"/>
+      <c r="K196" s="48"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
@@ -8286,7 +8319,7 @@
       </c>
       <c r="I203" s="9"/>
       <c r="J203" s="11"/>
-      <c r="K203" s="49">
+      <c r="K203" s="48">
         <v>39633</v>
       </c>
     </row>
@@ -8308,7 +8341,7 @@
       </c>
       <c r="I204" s="9"/>
       <c r="J204" s="11"/>
-      <c r="K204" s="49">
+      <c r="K204" s="48">
         <v>39650</v>
       </c>
     </row>
@@ -8330,7 +8363,7 @@
       <c r="H205" s="39"/>
       <c r="I205" s="9"/>
       <c r="J205" s="11"/>
-      <c r="K205" s="49"/>
+      <c r="K205" s="48"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
@@ -8355,7 +8388,7 @@
       </c>
       <c r="I206" s="9"/>
       <c r="J206" s="11"/>
-      <c r="K206" s="49">
+      <c r="K206" s="48">
         <v>39675</v>
       </c>
     </row>
@@ -8514,7 +8547,7 @@
       <c r="K213" s="20"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="48" t="s">
+      <c r="A214" s="47" t="s">
         <v>170</v>
       </c>
       <c r="B214" s="20"/>
@@ -8657,7 +8690,7 @@
       <c r="H220" s="39"/>
       <c r="I220" s="9"/>
       <c r="J220" s="11"/>
-      <c r="K220" s="51" t="s">
+      <c r="K220" s="50" t="s">
         <v>181</v>
       </c>
     </row>
@@ -8798,7 +8831,7 @@
       <c r="K226" s="20"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="48" t="s">
+      <c r="A227" s="47" t="s">
         <v>179</v>
       </c>
       <c r="B227" s="20"/>
@@ -8992,15 +9025,15 @@
       <c r="C236" s="13">
         <v>1.25</v>
       </c>
-      <c r="D236" s="43"/>
-      <c r="E236" s="50"/>
+      <c r="D236" s="42"/>
+      <c r="E236" s="49"/>
       <c r="F236" s="15"/>
       <c r="G236" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H236" s="43"/>
-      <c r="I236" s="50"/>
+      <c r="H236" s="42"/>
+      <c r="I236" s="49"/>
       <c r="J236" s="12"/>
       <c r="K236" s="15"/>
     </row>
@@ -9072,7 +9105,7 @@
       <c r="K239" s="20"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" s="48" t="s">
+      <c r="A240" s="47" t="s">
         <v>184</v>
       </c>
       <c r="B240" s="20"/>
@@ -9322,7 +9355,7 @@
       </c>
       <c r="I251" s="9"/>
       <c r="J251" s="11"/>
-      <c r="K251" s="49">
+      <c r="K251" s="48">
         <v>40872</v>
       </c>
     </row>
@@ -9344,7 +9377,7 @@
       </c>
       <c r="I252" s="9"/>
       <c r="J252" s="11"/>
-      <c r="K252" s="49">
+      <c r="K252" s="48">
         <v>40876</v>
       </c>
     </row>
@@ -9416,7 +9449,7 @@
       <c r="K255" s="20"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="48" t="s">
+      <c r="A256" s="47" t="s">
         <v>185</v>
       </c>
       <c r="B256" s="20"/>
@@ -9479,7 +9512,7 @@
       <c r="H258" s="39"/>
       <c r="I258" s="9"/>
       <c r="J258" s="11"/>
-      <c r="K258" s="51" t="s">
+      <c r="K258" s="50" t="s">
         <v>200</v>
       </c>
     </row>
@@ -9548,7 +9581,7 @@
       </c>
       <c r="I261" s="9"/>
       <c r="J261" s="11"/>
-      <c r="K261" s="49">
+      <c r="K261" s="48">
         <v>40981</v>
       </c>
     </row>
@@ -9717,7 +9750,7 @@
       </c>
       <c r="I268" s="9"/>
       <c r="J268" s="11"/>
-      <c r="K268" s="49">
+      <c r="K268" s="48">
         <v>41135</v>
       </c>
     </row>
@@ -9789,7 +9822,7 @@
       </c>
       <c r="I271" s="9"/>
       <c r="J271" s="11"/>
-      <c r="K271" s="49">
+      <c r="K271" s="48">
         <v>41198</v>
       </c>
     </row>
@@ -9950,7 +9983,7 @@
       <c r="K278" s="20"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A279" s="48" t="s">
+      <c r="A279" s="47" t="s">
         <v>188</v>
       </c>
       <c r="B279" s="20"/>
@@ -10037,7 +10070,7 @@
       </c>
       <c r="I282" s="9"/>
       <c r="J282" s="11"/>
-      <c r="K282" s="49">
+      <c r="K282" s="48">
         <v>41309</v>
       </c>
     </row>
@@ -10059,7 +10092,7 @@
       </c>
       <c r="I283" s="9"/>
       <c r="J283" s="11"/>
-      <c r="K283" s="49">
+      <c r="K283" s="48">
         <v>41317</v>
       </c>
     </row>
@@ -10188,17 +10221,17 @@
       <c r="C289" s="13">
         <v>1.25</v>
       </c>
-      <c r="D289" s="43">
+      <c r="D289" s="42">
         <v>1.3940000000000001</v>
       </c>
-      <c r="E289" s="50"/>
+      <c r="E289" s="49"/>
       <c r="F289" s="15"/>
       <c r="G289" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H289" s="43"/>
-      <c r="I289" s="50"/>
+      <c r="H289" s="42"/>
+      <c r="I289" s="49"/>
       <c r="J289" s="12"/>
       <c r="K289" s="15"/>
     </row>
@@ -10422,7 +10455,7 @@
       <c r="K298" s="20"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A299" s="48" t="s">
+      <c r="A299" s="47" t="s">
         <v>205</v>
       </c>
       <c r="B299" s="20"/>
@@ -10462,7 +10495,7 @@
       </c>
       <c r="I300" s="9"/>
       <c r="J300" s="11"/>
-      <c r="K300" s="49">
+      <c r="K300" s="48">
         <v>41653</v>
       </c>
     </row>
@@ -10744,7 +10777,7 @@
       <c r="K312" s="20"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A313" s="48" t="s">
+      <c r="A313" s="47" t="s">
         <v>220</v>
       </c>
       <c r="B313" s="20"/>
@@ -11024,7 +11057,7 @@
       <c r="K325" s="20"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A326" s="48" t="s">
+      <c r="A326" s="47" t="s">
         <v>229</v>
       </c>
       <c r="B326" s="20"/>
@@ -11221,7 +11254,7 @@
       </c>
       <c r="I334" s="9"/>
       <c r="J334" s="11"/>
-      <c r="K334" s="49">
+      <c r="K334" s="48">
         <v>42594</v>
       </c>
     </row>
@@ -11320,7 +11353,7 @@
       <c r="K338" s="20"/>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A339" s="48" t="s">
+      <c r="A339" s="47" t="s">
         <v>234</v>
       </c>
       <c r="B339" s="20"/>
@@ -11490,7 +11523,7 @@
       </c>
       <c r="I346" s="9"/>
       <c r="J346" s="11"/>
-      <c r="K346" s="49">
+      <c r="K346" s="48">
         <v>42941</v>
       </c>
     </row>
@@ -11580,7 +11613,7 @@
       </c>
       <c r="I350" s="9"/>
       <c r="J350" s="11"/>
-      <c r="K350" s="49">
+      <c r="K350" s="48">
         <v>43041</v>
       </c>
     </row>
@@ -11602,7 +11635,7 @@
       <c r="H351" s="39"/>
       <c r="I351" s="9"/>
       <c r="J351" s="11"/>
-      <c r="K351" s="49" t="s">
+      <c r="K351" s="48" t="s">
         <v>237</v>
       </c>
     </row>
@@ -11624,7 +11657,7 @@
       </c>
       <c r="I352" s="9"/>
       <c r="J352" s="11"/>
-      <c r="K352" s="49">
+      <c r="K352" s="48">
         <v>43067</v>
       </c>
     </row>
@@ -11650,7 +11683,7 @@
       <c r="K353" s="20"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A354" s="48" t="s">
+      <c r="A354" s="47" t="s">
         <v>235</v>
       </c>
       <c r="B354" s="20"/>
@@ -11853,7 +11886,7 @@
       </c>
       <c r="I362" s="9"/>
       <c r="J362" s="11"/>
-      <c r="K362" s="49">
+      <c r="K362" s="48">
         <v>43332</v>
       </c>
     </row>
@@ -11901,7 +11934,7 @@
       </c>
       <c r="I364" s="9"/>
       <c r="J364" s="11"/>
-      <c r="K364" s="49">
+      <c r="K364" s="48">
         <v>43381</v>
       </c>
     </row>
@@ -11916,19 +11949,19 @@
       <c r="C365" s="13">
         <v>1.25</v>
       </c>
-      <c r="D365" s="43"/>
-      <c r="E365" s="50"/>
+      <c r="D365" s="42"/>
+      <c r="E365" s="49"/>
       <c r="F365" s="15"/>
       <c r="G365" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H365" s="43">
+      <c r="H365" s="42">
         <v>1</v>
       </c>
-      <c r="I365" s="50"/>
+      <c r="I365" s="49"/>
       <c r="J365" s="12"/>
-      <c r="K365" s="52">
+      <c r="K365" s="51">
         <v>43417</v>
       </c>
     </row>
@@ -11977,7 +12010,7 @@
       </c>
       <c r="I367" s="9"/>
       <c r="J367" s="11"/>
-      <c r="K367" s="49">
+      <c r="K367" s="48">
         <v>43461</v>
       </c>
     </row>
@@ -12002,7 +12035,7 @@
       <c r="K368" s="20"/>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A369" s="48" t="s">
+      <c r="A369" s="47" t="s">
         <v>238</v>
       </c>
       <c r="B369" s="20"/>
@@ -12304,7 +12337,7 @@
       <c r="K382" s="20"/>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A383" s="48" t="s">
+      <c r="A383" s="47" t="s">
         <v>243</v>
       </c>
       <c r="B383" s="20"/>
@@ -12386,7 +12419,7 @@
       </c>
       <c r="I386" s="9"/>
       <c r="J386" s="11"/>
-      <c r="K386" s="49">
+      <c r="K386" s="48">
         <v>43533</v>
       </c>
     </row>
@@ -12590,20 +12623,20 @@
       <c r="K395" s="20"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A396" s="53" t="s">
+      <c r="A396" s="52" t="s">
         <v>247</v>
       </c>
       <c r="B396" s="15"/>
-      <c r="C396" s="42"/>
-      <c r="D396" s="43"/>
-      <c r="E396" s="50"/>
+      <c r="C396" s="41"/>
+      <c r="D396" s="42"/>
+      <c r="E396" s="49"/>
       <c r="F396" s="15"/>
       <c r="G396" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H396" s="43"/>
-      <c r="I396" s="50"/>
+      <c r="H396" s="42"/>
+      <c r="I396" s="49"/>
       <c r="J396" s="12"/>
       <c r="K396" s="15"/>
     </row>
@@ -12864,7 +12897,7 @@
       <c r="K408" s="20"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A409" s="48" t="s">
+      <c r="A409" s="47" t="s">
         <v>249</v>
       </c>
       <c r="B409" s="20"/>
@@ -12959,17 +12992,17 @@
       <c r="C413" s="13">
         <v>1.25</v>
       </c>
-      <c r="D413" s="43">
+      <c r="D413" s="42">
         <v>1</v>
       </c>
-      <c r="E413" s="50"/>
+      <c r="E413" s="49"/>
       <c r="F413" s="15"/>
       <c r="G413" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H413" s="43"/>
-      <c r="I413" s="50"/>
+      <c r="H413" s="42"/>
+      <c r="I413" s="49"/>
       <c r="J413" s="12"/>
       <c r="K413" s="15" t="s">
         <v>250</v>
@@ -13181,7 +13214,7 @@
       <c r="H422" s="39"/>
       <c r="I422" s="9"/>
       <c r="J422" s="11"/>
-      <c r="K422" s="51" t="s">
+      <c r="K422" s="50" t="s">
         <v>256</v>
       </c>
     </row>
@@ -13203,7 +13236,7 @@
       <c r="H423" s="39"/>
       <c r="I423" s="9"/>
       <c r="J423" s="11"/>
-      <c r="K423" s="51"/>
+      <c r="K423" s="50"/>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
@@ -13276,7 +13309,7 @@
       <c r="K426" s="20"/>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A427" s="48" t="s">
+      <c r="A427" s="47" t="s">
         <v>252</v>
       </c>
       <c r="B427" s="20"/>
@@ -13297,11 +13330,15 @@
       <c r="A428" s="40">
         <v>44927</v>
       </c>
-      <c r="B428" s="20"/>
+      <c r="B428" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C428" s="13">
         <v>1.25</v>
       </c>
-      <c r="D428" s="39"/>
+      <c r="D428" s="39">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="E428" s="9"/>
       <c r="F428" s="20"/>
       <c r="G428" s="13">
@@ -13340,19 +13377,19 @@
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A430" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B430" s="20"/>
-      <c r="C430" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D430" s="39"/>
+      <c r="A430" s="40"/>
+      <c r="B430" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C430" s="13"/>
+      <c r="D430" s="39">
+        <v>0.12300000000000001</v>
+      </c>
       <c r="E430" s="9"/>
       <c r="F430" s="20"/>
-      <c r="G430" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G430" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H430" s="39"/>
       <c r="I430" s="9"/>
@@ -13361,13 +13398,17 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B431" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B431" s="20" t="s">
+        <v>280</v>
+      </c>
       <c r="C431" s="13">
         <v>1.25</v>
       </c>
-      <c r="D431" s="39"/>
+      <c r="D431" s="39">
+        <v>1</v>
+      </c>
       <c r="E431" s="9"/>
       <c r="F431" s="20"/>
       <c r="G431" s="13">
@@ -13377,41 +13418,43 @@
       <c r="H431" s="39"/>
       <c r="I431" s="9"/>
       <c r="J431" s="11"/>
-      <c r="K431" s="20"/>
+      <c r="K431" s="48">
+        <v>45013</v>
+      </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A432" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C432" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D432" s="39"/>
+        <v>281</v>
+      </c>
+      <c r="C432" s="13"/>
+      <c r="D432" s="39">
+        <v>0.129</v>
+      </c>
       <c r="E432" s="9"/>
       <c r="F432" s="20"/>
-      <c r="G432" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G432" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H432" s="39"/>
       <c r="I432" s="9"/>
       <c r="J432" s="11"/>
-      <c r="K432" s="20" t="s">
-        <v>258</v>
-      </c>
+      <c r="K432" s="48"/>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B433" s="20"/>
+        <v>45017</v>
+      </c>
+      <c r="B433" s="20" t="s">
+        <v>279</v>
+      </c>
       <c r="C433" s="13">
         <v>1.25</v>
       </c>
-      <c r="D433" s="39"/>
+      <c r="D433" s="39">
+        <v>2E-3</v>
+      </c>
       <c r="E433" s="9"/>
       <c r="F433" s="20"/>
       <c r="G433" s="13">
@@ -13425,9 +13468,11 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B434" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B434" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C434" s="13">
         <v>1.25</v>
       </c>
@@ -13441,43 +13486,43 @@
       <c r="H434" s="39"/>
       <c r="I434" s="9"/>
       <c r="J434" s="11"/>
-      <c r="K434" s="20"/>
+      <c r="K434" s="20" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A435" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C435" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D435" s="39"/>
+        <v>278</v>
+      </c>
+      <c r="C435" s="13"/>
+      <c r="D435" s="39">
+        <v>4.8000000000000008E-2</v>
+      </c>
       <c r="E435" s="9"/>
       <c r="F435" s="20"/>
-      <c r="G435" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H435" s="39">
-        <v>1</v>
-      </c>
+      <c r="G435" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H435" s="39"/>
       <c r="I435" s="9"/>
       <c r="J435" s="11"/>
-      <c r="K435" s="49">
-        <v>45163</v>
-      </c>
+      <c r="K435" s="20"/>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B436" s="20"/>
+        <v>45078</v>
+      </c>
+      <c r="B436" s="20" t="s">
+        <v>261</v>
+      </c>
       <c r="C436" s="13">
         <v>1.25</v>
       </c>
-      <c r="D436" s="39"/>
+      <c r="D436" s="39">
+        <v>4.6000000000000006E-2</v>
+      </c>
       <c r="E436" s="9"/>
       <c r="F436" s="20"/>
       <c r="G436" s="13">
@@ -13491,13 +13536,17 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B437" s="20"/>
+        <v>45108</v>
+      </c>
+      <c r="B437" s="20" t="s">
+        <v>277</v>
+      </c>
       <c r="C437" s="13">
         <v>1.25</v>
       </c>
-      <c r="D437" s="39"/>
+      <c r="D437" s="39">
+        <v>5.4000000000000013E-2</v>
+      </c>
       <c r="E437" s="9"/>
       <c r="F437" s="20"/>
       <c r="G437" s="13">
@@ -13511,9 +13560,11 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B438" s="20"/>
+        <v>45139</v>
+      </c>
+      <c r="B438" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C438" s="13">
         <v>1.25</v>
       </c>
@@ -13524,49 +13575,53 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H438" s="39"/>
+      <c r="H438" s="39">
+        <v>1</v>
+      </c>
       <c r="I438" s="9"/>
       <c r="J438" s="11"/>
-      <c r="K438" s="20"/>
+      <c r="K438" s="48">
+        <v>45163</v>
+      </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A439" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C439" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D439" s="39"/>
+        <v>276</v>
+      </c>
+      <c r="C439" s="13"/>
+      <c r="D439" s="39">
+        <v>3.1000000000000014E-2</v>
+      </c>
       <c r="E439" s="9"/>
       <c r="F439" s="20"/>
-      <c r="G439" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H439" s="39">
-        <v>3</v>
-      </c>
+      <c r="G439" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H439" s="39"/>
       <c r="I439" s="9"/>
       <c r="J439" s="11"/>
-      <c r="K439" s="20" t="s">
-        <v>270</v>
-      </c>
+      <c r="K439" s="48"/>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B440" s="20"/>
-      <c r="C440" s="13"/>
-      <c r="D440" s="39"/>
+        <v>45170</v>
+      </c>
+      <c r="B440" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C440" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D440" s="39">
+        <v>0.01</v>
+      </c>
       <c r="E440" s="9"/>
       <c r="F440" s="20"/>
-      <c r="G440" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G440" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H440" s="39"/>
       <c r="I440" s="9"/>
@@ -13574,15 +13629,23 @@
       <c r="K440" s="20"/>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A441" s="40"/>
-      <c r="B441" s="20"/>
-      <c r="C441" s="13"/>
-      <c r="D441" s="39"/>
+      <c r="A441" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B441" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C441" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D441" s="39">
+        <v>0.4</v>
+      </c>
       <c r="E441" s="9"/>
       <c r="F441" s="20"/>
-      <c r="G441" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G441" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H441" s="39"/>
       <c r="I441" s="9"/>
@@ -13590,20 +13653,346 @@
       <c r="K441" s="20"/>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A442" s="41"/>
-      <c r="B442" s="15"/>
-      <c r="C442" s="42"/>
-      <c r="D442" s="43"/>
-      <c r="E442" s="50"/>
-      <c r="F442" s="15"/>
-      <c r="G442" s="42" t="str">
+      <c r="A442" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B442" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C442" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D442" s="39">
+        <v>3.7000000000000019E-2</v>
+      </c>
+      <c r="E442" s="9"/>
+      <c r="F442" s="20"/>
+      <c r="G442" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H442" s="39"/>
+      <c r="I442" s="9"/>
+      <c r="J442" s="11"/>
+      <c r="K442" s="20"/>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A443" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B443" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C443" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D443" s="39"/>
+      <c r="E443" s="9"/>
+      <c r="F443" s="20"/>
+      <c r="G443" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H443" s="39">
+        <v>3</v>
+      </c>
+      <c r="I443" s="9"/>
+      <c r="J443" s="11"/>
+      <c r="K443" s="20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A444" s="40"/>
+      <c r="B444" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C444" s="13"/>
+      <c r="D444" s="39">
+        <v>5</v>
+      </c>
+      <c r="E444" s="9"/>
+      <c r="F444" s="20"/>
+      <c r="G444" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H442" s="43"/>
-      <c r="I442" s="50"/>
-      <c r="J442" s="12"/>
-      <c r="K442" s="15"/>
+      <c r="H444" s="39"/>
+      <c r="I444" s="9"/>
+      <c r="J444" s="11"/>
+      <c r="K444" s="20"/>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A445" s="40"/>
+      <c r="B445" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C445" s="13"/>
+      <c r="D445" s="39">
+        <v>5.2000000000000011E-2</v>
+      </c>
+      <c r="E445" s="9"/>
+      <c r="F445" s="20"/>
+      <c r="G445" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H445" s="39"/>
+      <c r="I445" s="9"/>
+      <c r="J445" s="11"/>
+      <c r="K445" s="20"/>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A446" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="B446" s="20"/>
+      <c r="C446" s="13"/>
+      <c r="D446" s="39"/>
+      <c r="E446" s="9"/>
+      <c r="F446" s="20"/>
+      <c r="G446" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H446" s="39"/>
+      <c r="I446" s="9"/>
+      <c r="J446" s="11"/>
+      <c r="K446" s="20"/>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A447" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B447" s="20"/>
+      <c r="C447" s="13"/>
+      <c r="D447" s="39"/>
+      <c r="E447" s="9"/>
+      <c r="F447" s="20"/>
+      <c r="G447" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H447" s="39"/>
+      <c r="I447" s="9"/>
+      <c r="J447" s="11"/>
+      <c r="K447" s="20"/>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A448" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B448" s="20"/>
+      <c r="C448" s="13"/>
+      <c r="D448" s="39"/>
+      <c r="E448" s="9"/>
+      <c r="F448" s="20"/>
+      <c r="G448" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H448" s="39"/>
+      <c r="I448" s="9"/>
+      <c r="J448" s="11"/>
+      <c r="K448" s="20"/>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A449" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B449" s="15"/>
+      <c r="C449" s="41"/>
+      <c r="D449" s="42"/>
+      <c r="E449" s="49"/>
+      <c r="F449" s="15"/>
+      <c r="G449" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H449" s="42"/>
+      <c r="I449" s="49"/>
+      <c r="J449" s="12"/>
+      <c r="K449" s="15"/>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A450" s="40">
+        <v>45383</v>
+      </c>
+      <c r="B450" s="20"/>
+      <c r="C450" s="13"/>
+      <c r="D450" s="39"/>
+      <c r="E450" s="9"/>
+      <c r="F450" s="20"/>
+      <c r="G450" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H450" s="39"/>
+      <c r="I450" s="9"/>
+      <c r="J450" s="11"/>
+      <c r="K450" s="20"/>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A451" s="40">
+        <v>45413</v>
+      </c>
+      <c r="B451" s="20"/>
+      <c r="C451" s="13"/>
+      <c r="D451" s="39"/>
+      <c r="E451" s="9"/>
+      <c r="F451" s="20"/>
+      <c r="G451" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H451" s="39"/>
+      <c r="I451" s="9"/>
+      <c r="J451" s="11"/>
+      <c r="K451" s="20"/>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A452" s="40">
+        <v>45444</v>
+      </c>
+      <c r="B452" s="20"/>
+      <c r="C452" s="13"/>
+      <c r="D452" s="39"/>
+      <c r="E452" s="9"/>
+      <c r="F452" s="20"/>
+      <c r="G452" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H452" s="39"/>
+      <c r="I452" s="9"/>
+      <c r="J452" s="11"/>
+      <c r="K452" s="20"/>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A453" s="40">
+        <v>45474</v>
+      </c>
+      <c r="B453" s="20"/>
+      <c r="C453" s="13"/>
+      <c r="D453" s="39"/>
+      <c r="E453" s="9"/>
+      <c r="F453" s="20"/>
+      <c r="G453" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H453" s="39"/>
+      <c r="I453" s="9"/>
+      <c r="J453" s="11"/>
+      <c r="K453" s="20"/>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A454" s="40">
+        <v>45505</v>
+      </c>
+      <c r="B454" s="20"/>
+      <c r="C454" s="13"/>
+      <c r="D454" s="39"/>
+      <c r="E454" s="9"/>
+      <c r="F454" s="20"/>
+      <c r="G454" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H454" s="39"/>
+      <c r="I454" s="9"/>
+      <c r="J454" s="11"/>
+      <c r="K454" s="20"/>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A455" s="40">
+        <v>45536</v>
+      </c>
+      <c r="B455" s="20"/>
+      <c r="C455" s="13"/>
+      <c r="D455" s="39"/>
+      <c r="E455" s="9"/>
+      <c r="F455" s="20"/>
+      <c r="G455" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H455" s="39"/>
+      <c r="I455" s="9"/>
+      <c r="J455" s="11"/>
+      <c r="K455" s="20"/>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A456" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B456" s="20"/>
+      <c r="C456" s="13"/>
+      <c r="D456" s="39"/>
+      <c r="E456" s="9"/>
+      <c r="F456" s="20"/>
+      <c r="G456" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H456" s="39"/>
+      <c r="I456" s="9"/>
+      <c r="J456" s="11"/>
+      <c r="K456" s="20"/>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A457" s="40">
+        <v>45597</v>
+      </c>
+      <c r="B457" s="20"/>
+      <c r="C457" s="13"/>
+      <c r="D457" s="39"/>
+      <c r="E457" s="9"/>
+      <c r="F457" s="20"/>
+      <c r="G457" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H457" s="39"/>
+      <c r="I457" s="9"/>
+      <c r="J457" s="11"/>
+      <c r="K457" s="20"/>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A458" s="40">
+        <v>45627</v>
+      </c>
+      <c r="B458" s="20"/>
+      <c r="C458" s="13"/>
+      <c r="D458" s="39"/>
+      <c r="E458" s="9"/>
+      <c r="F458" s="20"/>
+      <c r="G458" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H458" s="39"/>
+      <c r="I458" s="9"/>
+      <c r="J458" s="11"/>
+      <c r="K458" s="20"/>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A459" s="40">
+        <v>45658</v>
+      </c>
+      <c r="B459" s="20"/>
+      <c r="C459" s="13"/>
+      <c r="D459" s="39"/>
+      <c r="E459" s="9"/>
+      <c r="F459" s="20"/>
+      <c r="G459" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H459" s="39"/>
+      <c r="I459" s="9"/>
+      <c r="J459" s="11"/>
+      <c r="K459" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13669,17 +14058,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="J1" s="65" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="J1" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -13697,7 +14086,7 @@
       <c r="F2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="45" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -13706,32 +14095,28 @@
       <c r="K2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="45" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
+      <c r="D3"/>
+      <c r="E3"/>
       <c r="F3">
-        <v>59</v>
-      </c>
-      <c r="G3" s="47">
+        <v>46</v>
+      </c>
+      <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.248</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
         <f>J4-1</f>
         <v>-1</v>
       </c>
-      <c r="L3" s="45" t="str">
+      <c r="L3" s="44" t="str">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
         <v>---</v>
       </c>
@@ -13759,13 +14144,13 @@
       <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="I6" s="65" t="s">
+      <c r="G6" s="43"/>
+      <c r="I6" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
@@ -13780,7 +14165,7 @@
       <c r="F7" s="33">
         <v>0.125</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="43"/>
       <c r="I7" s="30" t="s">
         <v>39</v>
       </c>
